--- a/xlsx/领导_intext.xlsx
+++ b/xlsx/领导_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理學史</t>
+    <t>心理学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物心理學</t>
+    <t>生物心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
@@ -107,43 +107,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展心理學</t>
+    <t>发展心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗心理學</t>
+    <t>实验心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學心理學</t>
+    <t>数学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經心理學</t>
+    <t>神经心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>正面心理學</t>
+    <t>正面心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -167,43 +167,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>諮商心理學</t>
+    <t>谘商心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判社區心理學</t>
+    <t>批判社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育心理學</t>
+    <t>教育心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法庭心理學</t>
+    <t>法庭心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/School_psychology</t>
@@ -299,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學科列表</t>
+    <t>心理学学科列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理學家</t>
+    <t>心理学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學派列表</t>
+    <t>心理学学派列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
@@ -371,19 +371,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%91%E9%95%B7</t>
   </si>
   <si>
-    <t>村長</t>
+    <t>村长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%8C%E9%96%80</t>
   </si>
   <si>
-    <t>掌門</t>
+    <t>掌门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E7%8E%8B</t>
@@ -401,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A%E9%A2%86%E8%A2%96</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E7%9B%AE</t>
   </si>
   <si>
-    <t>頭目</t>
+    <t>头目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E6%9C%8D</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98</t>
   </si>
   <si>
-    <t>領</t>
+    <t>领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%96</t>
@@ -449,19 +449,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%B8%AD%E6%AD%A3</t>
   </si>
   <si>
-    <t>蔣中正</t>
+    <t>蒋中正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%A2%96%E9%A0%8C</t>
   </si>
   <si>
-    <t>領袖頌</t>
+    <t>领袖颂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
+    <t>独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E5%B4%87%E6%8B%9C</t>
   </si>
   <si>
-    <t>個人崇拜</t>
+    <t>个人崇拜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9%E5%BE%B7%E5%9B%BD</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%A6%96_(%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B)</t>
   </si>
   <si>
-    <t>元首 (納粹德國)</t>
+    <t>元首 (纳粹德国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -557,19 +557,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E9%81%94%E6%9E%97</t>
   </si>
   <si>
-    <t>史達林</t>
+    <t>史达林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%97%A5%E6%88%90</t>
@@ -593,49 +593,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>土庫曼</t>
+    <t>土库曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BA%9E%E4%BD%90%E5%A4%AB</t>
   </si>
   <si>
-    <t>尼亞佐夫</t>
+    <t>尼亚佐夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E9%A0%98%E5%B0%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>最高領導人</t>
+    <t>最高领导人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%A6%8B%E9%A0%98%E8%A2%96</t>
   </si>
   <si>
-    <t>意見領袖</t>
+    <t>意见领袖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%88%E6%AC%8A</t>
   </si>
   <si>
-    <t>授權</t>
+    <t>授权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%8B%99</t>
   </si>
   <si>
-    <t>義務</t>
+    <t>义务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
@@ -647,25 +647,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>管理學</t>
+    <t>管理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>組織行為</t>
+    <t>组织行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>人力資源管理</t>
+    <t>人力资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%B0%E9%A0%98%E8%A2%96</t>
   </si>
   <si>
-    <t>估領袖</t>
+    <t>估领袖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%AB%E7%A5%9E%E5%8C%96%E7%9A%84%E4%BA%BA%E5%88%97%E8%A1%A8</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%97%A5%E6%8A%A5</t>
